--- a/凡熙餐厅.xlsx
+++ b/凡熙餐厅.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="凡熙餐厅（珠海拱北金力湾店）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="凡熙餐厅（珠海拱北金力湾店）" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -893,6 +893,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1157,7 +1225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA90"/>
+  <dimension ref="A1:BA98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
@@ -19789,7 +19857,6 @@
           <t>1035.70</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
           <t>1</t>
@@ -19901,6 +19968,1503 @@
         </is>
       </c>
       <c r="AU90" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>2116.20</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>2136.20</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>2136.20</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>826.0</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2116.20</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>2136.20</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>2136.20</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>826.0</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>1341.40</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO93" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ93" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AR93" t="inlineStr">
+        <is>
+          <t>877.0</t>
+        </is>
+      </c>
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>1298.0</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU94" t="inlineStr">
+        <is>
+          <t>59.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>1298.0</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ95" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AR95" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AS95" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU95" t="inlineStr">
+        <is>
+          <t>59.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>3373.70</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AI96" t="inlineStr">
+        <is>
+          <t>1298.0</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AR96" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AS96" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU96" t="inlineStr">
+        <is>
+          <t>59.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2987.90</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="AP97" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ97" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AR97" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU97" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2987.90</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>3007.90</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[118.0]</t>
+        </is>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AI98" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅2人餐[48.0]</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅单人餐[38.0]</t>
+        </is>
+      </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅代金券[79.9]</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>珠海_凡熙餐厅19.9元必点迷迭香煎鸡扒1份[19.9]</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU98" t="inlineStr">
         <is>
           <t>19.9</t>
         </is>
